--- a/3d/runs/press-distributed.xlsx
+++ b/3d/runs/press-distributed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E502E96-E63A-426B-8F0C-3704242C12F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD03194D-2123-45B6-9335-FCD8F6083737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -168,12 +168,6 @@
     <t>1, 1, 1</t>
   </si>
   <si>
-    <t>TPU</t>
-  </si>
-  <si>
-    <t>ABS</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
   </si>
   <si>
     <t>Maximum change in objective for convergence</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>PCL</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,24 +672,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5">
         <v>1E-3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -730,8 +730,8 @@
         <v>5</v>
       </c>
       <c r="B13" s="5">
-        <f>2*SQRT(3)</f>
-        <v>3.4641016151377544</v>
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>35</v>
@@ -982,7 +982,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1026,7 +1026,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,35 +1073,35 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="2">
-        <v>5.1700000000000001E-3</v>
+        <v>0.19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
